--- a/Data/df_test.xlsx
+++ b/Data/df_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="32">
   <si>
     <t>Client</t>
   </si>
@@ -104,24 +104,6 @@
   </si>
   <si>
     <t>TransactionsDeb_PaymentOrder</t>
-  </si>
-  <si>
-    <t>Sale_MF</t>
-  </si>
-  <si>
-    <t>Sale_CC</t>
-  </si>
-  <si>
-    <t>Sale_CL</t>
-  </si>
-  <si>
-    <t>Revenue_MF</t>
-  </si>
-  <si>
-    <t>Revenue_CC</t>
-  </si>
-  <si>
-    <t>Revenue_CL</t>
   </si>
   <si>
     <t>M</t>
@@ -485,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK647"/>
+  <dimension ref="A1:AE647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,26 +564,8 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -609,7 +573,7 @@
         <v>909</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -678,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -686,7 +650,7 @@
         <v>699</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>37</v>
@@ -755,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -763,7 +727,7 @@
         <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -826,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -834,7 +798,7 @@
         <v>1145</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>61</v>
@@ -891,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -899,7 +863,7 @@
         <v>517</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>41</v>
@@ -956,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -964,7 +928,7 @@
         <v>1475</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>59</v>
@@ -1021,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -1029,7 +993,7 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -1092,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>26</v>
       </c>
@@ -1100,7 +1064,7 @@
         <v>1134</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -1169,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -1177,7 +1141,7 @@
         <v>1218</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -1240,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -1248,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -1305,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>33</v>
       </c>
@@ -1313,7 +1277,7 @@
         <v>817</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>42</v>
@@ -1376,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -1384,7 +1348,7 @@
         <v>994</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -1447,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -1455,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>17</v>
@@ -1518,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -1526,7 +1490,7 @@
         <v>654</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>36</v>
@@ -1583,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1591,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>38</v>
@@ -1662,7 +1626,7 @@
         <v>1445</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -1739,7 +1703,7 @@
         <v>1098</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>64</v>
@@ -1828,7 +1792,7 @@
         <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>71</v>
@@ -1911,7 +1875,7 @@
         <v>1201</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>61</v>
@@ -1982,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -2053,7 +2017,7 @@
         <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -2118,7 +2082,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>37</v>
@@ -2195,7 +2159,7 @@
         <v>688</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>71</v>
@@ -2260,7 +2224,7 @@
         <v>1520</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>51</v>
@@ -2325,7 +2289,7 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>64</v>
@@ -2390,7 +2354,7 @@
         <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -2455,7 +2419,7 @@
         <v>1289</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -2532,7 +2496,7 @@
         <v>668</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>55</v>
@@ -2615,7 +2579,7 @@
         <v>1380</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -2680,7 +2644,7 @@
         <v>1331</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>79</v>
@@ -2745,7 +2709,7 @@
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>24</v>
@@ -2810,7 +2774,7 @@
         <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>73</v>
@@ -2875,7 +2839,7 @@
         <v>1076</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>22</v>
@@ -2946,7 +2910,7 @@
         <v>976</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>58</v>
@@ -3023,7 +2987,7 @@
         <v>1063</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3100,7 +3064,7 @@
         <v>1037</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>59</v>
@@ -3177,7 +3141,7 @@
         <v>427</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -3242,7 +3206,7 @@
         <v>1004</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>70</v>
@@ -3307,7 +3271,7 @@
         <v>707</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>88</v>
@@ -3372,7 +3336,7 @@
         <v>1127</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>70</v>
@@ -3443,7 +3407,7 @@
         <v>1550</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>47</v>
@@ -3514,7 +3478,7 @@
         <v>1088</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>41</v>
@@ -3579,7 +3543,7 @@
         <v>1186</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>45</v>
@@ -3644,7 +3608,7 @@
         <v>891</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>21</v>
@@ -3715,7 +3679,7 @@
         <v>889</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>36</v>
@@ -3780,7 +3744,7 @@
         <v>1578</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -3845,7 +3809,7 @@
         <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>43</v>
@@ -3916,7 +3880,7 @@
         <v>1288</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>41</v>
@@ -3999,7 +3963,7 @@
         <v>1458</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>38</v>
@@ -4070,7 +4034,7 @@
         <v>375</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>64</v>
@@ -4141,7 +4105,7 @@
         <v>1440</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>29</v>
@@ -4212,7 +4176,7 @@
         <v>1447</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -4289,7 +4253,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>46</v>
@@ -4360,7 +4324,7 @@
         <v>797</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D55">
         <v>37</v>
@@ -4437,7 +4401,7 @@
         <v>787</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <v>66</v>
@@ -4514,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>29</v>
@@ -4585,7 +4549,7 @@
         <v>1611</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <v>41</v>
@@ -4656,7 +4620,7 @@
         <v>293</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D59">
         <v>21</v>
@@ -4721,7 +4685,7 @@
         <v>959</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D60">
         <v>34</v>
@@ -4786,7 +4750,7 @@
         <v>1489</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D61">
         <v>80</v>
@@ -4851,7 +4815,7 @@
         <v>1405</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -4916,7 +4880,7 @@
         <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>28</v>
@@ -4981,7 +4945,7 @@
         <v>460</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>20</v>
@@ -5052,7 +5016,7 @@
         <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>17</v>
@@ -5123,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>33</v>
@@ -5194,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -5271,7 +5235,7 @@
         <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>27</v>
@@ -5342,7 +5306,7 @@
         <v>834</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>28</v>
@@ -5419,7 +5383,7 @@
         <v>633</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>47</v>
@@ -5496,7 +5460,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D71">
         <v>38</v>
@@ -5561,7 +5525,7 @@
         <v>894</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D72">
         <v>69</v>
@@ -5644,7 +5608,7 @@
         <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D73">
         <v>33</v>
@@ -5715,7 +5679,7 @@
         <v>1516</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D74">
         <v>40</v>
@@ -5786,7 +5750,7 @@
         <v>476</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D75">
         <v>42</v>
@@ -5863,7 +5827,7 @@
         <v>570</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D76">
         <v>51</v>
@@ -5928,7 +5892,7 @@
         <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D77">
         <v>59</v>
@@ -5999,7 +5963,7 @@
         <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D78">
         <v>46</v>
@@ -6064,7 +6028,7 @@
         <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D79">
         <v>61</v>
@@ -6141,7 +6105,7 @@
         <v>1227</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D80">
         <v>39</v>
@@ -6212,7 +6176,7 @@
         <v>1393</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D81">
         <v>74</v>
@@ -6277,7 +6241,7 @@
         <v>1086</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D82">
         <v>45</v>
@@ -6342,7 +6306,7 @@
         <v>1028</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D83">
         <v>29</v>
@@ -6407,7 +6371,7 @@
         <v>816</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D84">
         <v>24</v>
@@ -6472,7 +6436,7 @@
         <v>852</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -6537,7 +6501,7 @@
         <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D86">
         <v>47</v>
@@ -6608,7 +6572,7 @@
         <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -6685,7 +6649,7 @@
         <v>1250</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>40</v>
@@ -6756,7 +6720,7 @@
         <v>929</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D89">
         <v>87</v>
@@ -6821,7 +6785,7 @@
         <v>791</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D90">
         <v>16</v>
@@ -6910,7 +6874,7 @@
         <v>382</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>29</v>
@@ -6981,7 +6945,7 @@
         <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D92">
         <v>66</v>
@@ -7004,7 +6968,7 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>67</v>
@@ -7081,7 +7045,7 @@
         <v>473</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D94">
         <v>61</v>
@@ -7158,7 +7122,7 @@
         <v>342</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D95">
         <v>26</v>
@@ -7235,7 +7199,7 @@
         <v>690</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>72</v>
@@ -7306,7 +7270,7 @@
         <v>1599</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D97">
         <v>25</v>
@@ -7371,7 +7335,7 @@
         <v>1390</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D98">
         <v>59</v>
@@ -7436,7 +7400,7 @@
         <v>1139</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D99">
         <v>52</v>
@@ -7459,7 +7423,7 @@
         <v>1606</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D100">
         <v>47</v>
@@ -7530,7 +7494,7 @@
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D101">
         <v>14</v>
@@ -7595,7 +7559,7 @@
         <v>1074</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D102">
         <v>21</v>
@@ -7660,7 +7624,7 @@
         <v>1357</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D103">
         <v>56</v>
@@ -7725,7 +7689,7 @@
         <v>474</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>19</v>
@@ -7796,7 +7760,7 @@
         <v>1414</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D105">
         <v>71</v>
@@ -7867,7 +7831,7 @@
         <v>1374</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D106">
         <v>61</v>
@@ -7938,7 +7902,7 @@
         <v>1339</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D107">
         <v>80</v>
@@ -8003,7 +7967,7 @@
         <v>1156</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D108">
         <v>82</v>
@@ -8068,7 +8032,7 @@
         <v>94</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D109">
         <v>22</v>
@@ -8139,7 +8103,7 @@
         <v>957</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D110">
         <v>92</v>
@@ -8216,7 +8180,7 @@
         <v>1172</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D111">
         <v>11</v>
@@ -8293,7 +8257,7 @@
         <v>471</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D112">
         <v>29</v>
@@ -8358,7 +8322,7 @@
         <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D113">
         <v>97</v>
@@ -8423,7 +8387,7 @@
         <v>933</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -8494,7 +8458,7 @@
         <v>266</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D115">
         <v>42</v>
@@ -8559,7 +8523,7 @@
         <v>1031</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D116">
         <v>40</v>
@@ -8630,7 +8594,7 @@
         <v>1051</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D117">
         <v>34</v>
@@ -8713,7 +8677,7 @@
         <v>647</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D118">
         <v>68</v>
@@ -8778,7 +8742,7 @@
         <v>659</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D119">
         <v>40</v>
@@ -8843,7 +8807,7 @@
         <v>1503</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D120">
         <v>52</v>
@@ -8920,7 +8884,7 @@
         <v>656</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D121">
         <v>62</v>
@@ -8991,7 +8955,7 @@
         <v>1410</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D122">
         <v>41</v>
@@ -9062,7 +9026,7 @@
         <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D123">
         <v>32</v>
@@ -9127,7 +9091,7 @@
         <v>701</v>
       </c>
       <c r="C124" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D124">
         <v>39</v>
@@ -9198,7 +9162,7 @@
         <v>1430</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D125">
         <v>62</v>
@@ -9269,7 +9233,7 @@
         <v>1095</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D126">
         <v>26</v>
@@ -9340,7 +9304,7 @@
         <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D127">
         <v>81</v>
@@ -9405,7 +9369,7 @@
         <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D128">
         <v>25</v>
@@ -9494,7 +9458,7 @@
         <v>1419</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -9571,7 +9535,7 @@
         <v>665</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D130">
         <v>44</v>
@@ -9636,7 +9600,7 @@
         <v>524</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>23</v>
@@ -9707,7 +9671,7 @@
         <v>439</v>
       </c>
       <c r="C132" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D132">
         <v>67</v>
@@ -9772,7 +9736,7 @@
         <v>991</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D133">
         <v>42</v>
@@ -9837,7 +9801,7 @@
         <v>355</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D134">
         <v>43</v>
@@ -9860,7 +9824,7 @@
         <v>1354</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>17</v>
@@ -9925,7 +9889,7 @@
         <v>635</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -9990,7 +9954,7 @@
         <v>652</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D137">
         <v>50</v>
@@ -10055,7 +10019,7 @@
         <v>1370</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D138">
         <v>27</v>
@@ -10126,7 +10090,7 @@
         <v>459</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D139">
         <v>41</v>
@@ -10191,7 +10155,7 @@
         <v>1446</v>
       </c>
       <c r="C140" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D140">
         <v>46</v>
@@ -10214,7 +10178,7 @@
         <v>1222</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D141">
         <v>21</v>
@@ -10279,7 +10243,7 @@
         <v>485</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -10344,7 +10308,7 @@
         <v>1124</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D143">
         <v>55</v>
@@ -10409,7 +10373,7 @@
         <v>830</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D144">
         <v>23</v>
@@ -10474,7 +10438,7 @@
         <v>717</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D145">
         <v>24</v>
@@ -10539,7 +10503,7 @@
         <v>854</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D146">
         <v>26</v>
@@ -10622,7 +10586,7 @@
         <v>1589</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D147">
         <v>20</v>
@@ -10693,7 +10657,7 @@
         <v>313</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D148">
         <v>47</v>
@@ -10764,7 +10728,7 @@
         <v>986</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D149">
         <v>18</v>
@@ -10841,7 +10805,7 @@
         <v>1320</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D150">
         <v>60</v>
@@ -10912,7 +10876,7 @@
         <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D151">
         <v>24</v>
@@ -10989,7 +10953,7 @@
         <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D152">
         <v>11</v>
@@ -11060,7 +11024,7 @@
         <v>1257</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D153">
         <v>23</v>
@@ -11125,7 +11089,7 @@
         <v>1541</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D154">
         <v>67</v>
@@ -11190,7 +11154,7 @@
         <v>1297</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D155">
         <v>78</v>
@@ -11255,7 +11219,7 @@
         <v>1105</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D156">
         <v>61</v>
@@ -11320,7 +11284,7 @@
         <v>1080</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D157">
         <v>48</v>
@@ -11385,7 +11349,7 @@
         <v>794</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D158">
         <v>39</v>
@@ -11474,7 +11438,7 @@
         <v>1133</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D159">
         <v>44</v>
@@ -11557,7 +11521,7 @@
         <v>1448</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D160">
         <v>24</v>
@@ -11622,7 +11586,7 @@
         <v>89</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D161">
         <v>40</v>
@@ -11699,7 +11663,7 @@
         <v>1244</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D162">
         <v>34</v>
@@ -11722,7 +11686,7 @@
         <v>91</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D163">
         <v>35</v>
@@ -11787,7 +11751,7 @@
         <v>1096</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D164">
         <v>39</v>
@@ -11858,7 +11822,7 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D165">
         <v>46</v>
@@ -11997,7 +11961,7 @@
         <v>1183</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D167">
         <v>58</v>
@@ -12074,7 +12038,7 @@
         <v>974</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D168">
         <v>61</v>
@@ -12139,7 +12103,7 @@
         <v>1543</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D169">
         <v>27</v>
@@ -12216,7 +12180,7 @@
         <v>1530</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D170">
         <v>22</v>
@@ -12281,7 +12245,7 @@
         <v>267</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D171">
         <v>73</v>
@@ -12346,7 +12310,7 @@
         <v>400</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D172">
         <v>80</v>
@@ -12411,7 +12375,7 @@
         <v>1460</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D173">
         <v>72</v>
@@ -12482,7 +12446,7 @@
         <v>625</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D174">
         <v>60</v>
@@ -12547,7 +12511,7 @@
         <v>677</v>
       </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D175">
         <v>25</v>
@@ -12612,7 +12576,7 @@
         <v>590</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D176">
         <v>65</v>
@@ -12677,7 +12641,7 @@
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D177">
         <v>29</v>
@@ -12742,7 +12706,7 @@
         <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D178">
         <v>73</v>
@@ -12807,7 +12771,7 @@
         <v>305</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D179">
         <v>37</v>
@@ -12830,7 +12794,7 @@
         <v>706</v>
       </c>
       <c r="C180" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D180">
         <v>31</v>
@@ -12895,7 +12859,7 @@
         <v>1174</v>
       </c>
       <c r="C181" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>59</v>
@@ -12960,7 +12924,7 @@
         <v>144</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D182">
         <v>67</v>
@@ -13025,7 +12989,7 @@
         <v>176</v>
       </c>
       <c r="C183" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D183">
         <v>56</v>
@@ -13090,7 +13054,7 @@
         <v>1422</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D184">
         <v>34</v>
@@ -13161,7 +13125,7 @@
         <v>1395</v>
       </c>
       <c r="C185" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D185">
         <v>41</v>
@@ -13226,7 +13190,7 @@
         <v>660</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D186">
         <v>61</v>
@@ -13297,7 +13261,7 @@
         <v>1243</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D187">
         <v>78</v>
@@ -13368,7 +13332,7 @@
         <v>1356</v>
       </c>
       <c r="C188" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D188">
         <v>38</v>
@@ -13433,7 +13397,7 @@
         <v>733</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D189">
         <v>17</v>
@@ -13504,7 +13468,7 @@
         <v>1603</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D190">
         <v>52</v>
@@ -13569,7 +13533,7 @@
         <v>1511</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D191">
         <v>49</v>
@@ -13652,7 +13616,7 @@
         <v>861</v>
       </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D192">
         <v>46</v>
@@ -13717,7 +13681,7 @@
         <v>710</v>
       </c>
       <c r="C193" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D193">
         <v>33</v>
@@ -13782,7 +13746,7 @@
         <v>1173</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D194">
         <v>35</v>
@@ -13847,7 +13811,7 @@
         <v>1054</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>10</v>
@@ -13912,7 +13876,7 @@
         <v>897</v>
       </c>
       <c r="C196" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>51</v>
@@ -13989,7 +13953,7 @@
         <v>923</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D197">
         <v>49</v>
@@ -14054,7 +14018,7 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D198">
         <v>30</v>
@@ -14125,7 +14089,7 @@
         <v>878</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D199">
         <v>5</v>
@@ -14196,7 +14160,7 @@
         <v>227</v>
       </c>
       <c r="C200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D200">
         <v>36</v>
@@ -14273,7 +14237,7 @@
         <v>331</v>
       </c>
       <c r="C201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D201">
         <v>43</v>
@@ -14338,7 +14302,7 @@
         <v>541</v>
       </c>
       <c r="C202" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D202">
         <v>81</v>
@@ -14403,7 +14367,7 @@
         <v>1249</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D203">
         <v>66</v>
@@ -14468,7 +14432,7 @@
         <v>1150</v>
       </c>
       <c r="C204" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D204">
         <v>31</v>
@@ -14539,7 +14503,7 @@
         <v>748</v>
       </c>
       <c r="C205" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D205">
         <v>67</v>
@@ -14610,7 +14574,7 @@
         <v>1281</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D206">
         <v>40</v>
@@ -14675,7 +14639,7 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D207">
         <v>44</v>
@@ -14758,7 +14722,7 @@
         <v>1300</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D208">
         <v>41</v>
@@ -14829,7 +14793,7 @@
         <v>910</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D209">
         <v>34</v>
@@ -14906,7 +14870,7 @@
         <v>522</v>
       </c>
       <c r="C210" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D210">
         <v>47</v>
@@ -14929,7 +14893,7 @@
         <v>352</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D211">
         <v>38</v>
@@ -15000,7 +14964,7 @@
         <v>945</v>
       </c>
       <c r="C212" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D212">
         <v>31</v>
@@ -15065,7 +15029,7 @@
         <v>948</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D213">
         <v>31</v>
@@ -15136,7 +15100,7 @@
         <v>392</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D214">
         <v>27</v>
@@ -15219,7 +15183,7 @@
         <v>796</v>
       </c>
       <c r="C215" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D215">
         <v>76</v>
@@ -15296,7 +15260,7 @@
         <v>579</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D216">
         <v>55</v>
@@ -15367,7 +15331,7 @@
         <v>1526</v>
       </c>
       <c r="C217" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D217">
         <v>39</v>
@@ -15432,7 +15396,7 @@
         <v>1562</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D218">
         <v>52</v>
@@ -15497,7 +15461,7 @@
         <v>1295</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D219">
         <v>32</v>
@@ -15580,7 +15544,7 @@
         <v>916</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D220">
         <v>51</v>
@@ -15669,7 +15633,7 @@
         <v>919</v>
       </c>
       <c r="C221" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D221">
         <v>29</v>
@@ -15740,7 +15704,7 @@
         <v>276</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D222">
         <v>68</v>
@@ -15811,7 +15775,7 @@
         <v>1485</v>
       </c>
       <c r="C223" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D223">
         <v>54</v>
@@ -15888,7 +15852,7 @@
         <v>180</v>
       </c>
       <c r="C224" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D224">
         <v>56</v>
@@ -15953,7 +15917,7 @@
         <v>64</v>
       </c>
       <c r="C225" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D225">
         <v>61</v>
@@ -16024,7 +15988,7 @@
         <v>780</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D226">
         <v>19</v>
@@ -16101,7 +16065,7 @@
         <v>1064</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D227">
         <v>39</v>
@@ -16178,7 +16142,7 @@
         <v>1540</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D228">
         <v>64</v>
@@ -16249,7 +16213,7 @@
         <v>119</v>
       </c>
       <c r="C229" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D229">
         <v>25</v>
@@ -16326,7 +16290,7 @@
         <v>1050</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D230">
         <v>44</v>
@@ -16397,7 +16361,7 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D231">
         <v>54</v>
@@ -16486,7 +16450,7 @@
         <v>772</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D232">
         <v>68</v>
@@ -16569,7 +16533,7 @@
         <v>484</v>
       </c>
       <c r="C233" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D233">
         <v>71</v>
@@ -16634,7 +16598,7 @@
         <v>1280</v>
       </c>
       <c r="C234" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D234">
         <v>48</v>
@@ -16699,7 +16663,7 @@
         <v>1407</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D235">
         <v>43</v>
@@ -16764,7 +16728,7 @@
         <v>1385</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D236">
         <v>38</v>
@@ -16841,7 +16805,7 @@
         <v>487</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D237">
         <v>35</v>
@@ -16918,7 +16882,7 @@
         <v>301</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D238">
         <v>37</v>
@@ -16989,7 +16953,7 @@
         <v>577</v>
       </c>
       <c r="C239" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D239">
         <v>67</v>
@@ -17054,7 +17018,7 @@
         <v>1610</v>
       </c>
       <c r="C240" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D240">
         <v>48</v>
@@ -17125,7 +17089,7 @@
         <v>1366</v>
       </c>
       <c r="C241" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D241">
         <v>32</v>
@@ -17196,7 +17160,7 @@
         <v>531</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D242">
         <v>30</v>
@@ -17261,7 +17225,7 @@
         <v>258</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D243">
         <v>73</v>
@@ -17326,7 +17290,7 @@
         <v>389</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D244">
         <v>43</v>
@@ -17403,7 +17367,7 @@
         <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D245">
         <v>38</v>
@@ -17474,7 +17438,7 @@
         <v>1187</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D246">
         <v>57</v>
@@ -17539,7 +17503,7 @@
         <v>506</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D247">
         <v>20</v>
@@ -17616,7 +17580,7 @@
         <v>1594</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D248">
         <v>22</v>
@@ -17687,7 +17651,7 @@
         <v>1360</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D249">
         <v>28</v>
@@ -17758,7 +17722,7 @@
         <v>1304</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D250">
         <v>65</v>
@@ -17829,7 +17793,7 @@
         <v>1525</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D251">
         <v>45</v>
@@ -17900,7 +17864,7 @@
         <v>318</v>
       </c>
       <c r="C252" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D252">
         <v>17</v>
@@ -17965,7 +17929,7 @@
         <v>1433</v>
       </c>
       <c r="C253" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D253">
         <v>61</v>
@@ -18030,7 +17994,7 @@
         <v>595</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D254">
         <v>25</v>
@@ -18095,7 +18059,7 @@
         <v>1365</v>
       </c>
       <c r="C255" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D255">
         <v>39</v>
@@ -18166,7 +18130,7 @@
         <v>394</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D256">
         <v>7</v>
@@ -18243,7 +18207,7 @@
         <v>454</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D257">
         <v>76</v>
@@ -18308,7 +18272,7 @@
         <v>1544</v>
       </c>
       <c r="C258" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D258">
         <v>30</v>
@@ -18331,7 +18295,7 @@
         <v>336</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D259">
         <v>69</v>
@@ -18414,7 +18378,7 @@
         <v>756</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D260">
         <v>29</v>
@@ -18503,7 +18467,7 @@
         <v>196</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D261">
         <v>63</v>
@@ -18574,7 +18538,7 @@
         <v>1377</v>
       </c>
       <c r="C262" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D262">
         <v>53</v>
@@ -18639,7 +18603,7 @@
         <v>239</v>
       </c>
       <c r="C263" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D263">
         <v>24</v>
@@ -18716,7 +18680,7 @@
         <v>545</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D264">
         <v>20</v>
@@ -18787,7 +18751,7 @@
         <v>257</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D265">
         <v>45</v>
@@ -18858,7 +18822,7 @@
         <v>367</v>
       </c>
       <c r="C266" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D266">
         <v>42</v>
@@ -18923,7 +18887,7 @@
         <v>1359</v>
       </c>
       <c r="C267" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D267">
         <v>40</v>
@@ -18994,7 +18958,7 @@
         <v>1077</v>
       </c>
       <c r="C268" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D268">
         <v>26</v>
@@ -19071,7 +19035,7 @@
         <v>1498</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D269">
         <v>30</v>
@@ -19142,7 +19106,7 @@
         <v>1194</v>
       </c>
       <c r="C270" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D270">
         <v>32</v>
@@ -19207,7 +19171,7 @@
         <v>505</v>
       </c>
       <c r="C271" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D271">
         <v>38</v>
@@ -19278,7 +19242,7 @@
         <v>862</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D272">
         <v>29</v>
@@ -19343,7 +19307,7 @@
         <v>74</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D273">
         <v>63</v>
@@ -19420,7 +19384,7 @@
         <v>152</v>
       </c>
       <c r="C274" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D274">
         <v>50</v>
@@ -19491,7 +19455,7 @@
         <v>1251</v>
       </c>
       <c r="C275" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D275">
         <v>53</v>
@@ -19562,7 +19526,7 @@
         <v>1234</v>
       </c>
       <c r="C276" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D276">
         <v>52</v>
@@ -19627,7 +19591,7 @@
         <v>925</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D277">
         <v>28</v>
@@ -19692,7 +19656,7 @@
         <v>39</v>
       </c>
       <c r="C278" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D278">
         <v>78</v>
@@ -19763,7 +19727,7 @@
         <v>783</v>
       </c>
       <c r="C279" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D279">
         <v>26</v>
@@ -19828,7 +19792,7 @@
         <v>1314</v>
       </c>
       <c r="C280" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D280">
         <v>34</v>
@@ -19899,7 +19863,7 @@
         <v>170</v>
       </c>
       <c r="C281" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D281">
         <v>41</v>
@@ -19964,7 +19928,7 @@
         <v>62</v>
       </c>
       <c r="C282" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D282">
         <v>51</v>
@@ -20029,7 +19993,7 @@
         <v>566</v>
       </c>
       <c r="C283" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D283">
         <v>40</v>
@@ -20112,7 +20076,7 @@
         <v>853</v>
       </c>
       <c r="C284" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D284">
         <v>47</v>
@@ -20189,7 +20153,7 @@
         <v>155</v>
       </c>
       <c r="C285" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D285">
         <v>27</v>
@@ -20254,7 +20218,7 @@
         <v>1097</v>
       </c>
       <c r="C286" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D286">
         <v>37</v>
@@ -20331,7 +20295,7 @@
         <v>951</v>
       </c>
       <c r="C287" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D287">
         <v>69</v>
@@ -20414,7 +20378,7 @@
         <v>1241</v>
       </c>
       <c r="C288" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -20485,7 +20449,7 @@
         <v>766</v>
       </c>
       <c r="C289" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D289">
         <v>32</v>
@@ -20550,7 +20514,7 @@
         <v>829</v>
       </c>
       <c r="C290" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D290">
         <v>80</v>
@@ -20627,7 +20591,7 @@
         <v>235</v>
       </c>
       <c r="C291" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D291">
         <v>26</v>
@@ -20698,7 +20662,7 @@
         <v>876</v>
       </c>
       <c r="C292" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D292">
         <v>57</v>
@@ -20775,7 +20739,7 @@
         <v>1510</v>
       </c>
       <c r="C293" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D293">
         <v>19</v>
@@ -20852,7 +20816,7 @@
         <v>1126</v>
       </c>
       <c r="C294" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D294">
         <v>46</v>
@@ -20917,7 +20881,7 @@
         <v>1597</v>
       </c>
       <c r="C295" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D295">
         <v>19</v>
@@ -20988,7 +20952,7 @@
         <v>197</v>
       </c>
       <c r="C296" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D296">
         <v>70</v>
@@ -21065,7 +21029,7 @@
         <v>769</v>
       </c>
       <c r="C297" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D297">
         <v>31</v>
@@ -21136,7 +21100,7 @@
         <v>1090</v>
       </c>
       <c r="C298" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D298">
         <v>31</v>
@@ -21207,7 +21171,7 @@
         <v>504</v>
       </c>
       <c r="C299" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D299">
         <v>20</v>
@@ -21272,7 +21236,7 @@
         <v>1132</v>
       </c>
       <c r="C300" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D300">
         <v>93</v>
@@ -21349,7 +21313,7 @@
         <v>868</v>
       </c>
       <c r="C301" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D301">
         <v>40</v>
@@ -21420,7 +21384,7 @@
         <v>1609</v>
       </c>
       <c r="C302" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D302">
         <v>31</v>
@@ -21485,7 +21449,7 @@
         <v>587</v>
       </c>
       <c r="C303" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D303">
         <v>53</v>
@@ -21562,7 +21526,7 @@
         <v>1566</v>
       </c>
       <c r="C304" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D304">
         <v>4</v>
@@ -21633,7 +21597,7 @@
         <v>1263</v>
       </c>
       <c r="C305" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D305">
         <v>69</v>
@@ -21716,7 +21680,7 @@
         <v>216</v>
       </c>
       <c r="C306" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D306">
         <v>61</v>
@@ -21787,7 +21751,7 @@
         <v>1416</v>
       </c>
       <c r="C307" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D307">
         <v>61</v>
@@ -21864,7 +21828,7 @@
         <v>1493</v>
       </c>
       <c r="C308" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -21929,7 +21893,7 @@
         <v>283</v>
       </c>
       <c r="C309" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D309">
         <v>27</v>
@@ -21994,7 +21958,7 @@
         <v>1039</v>
       </c>
       <c r="C310" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D310">
         <v>56</v>
@@ -22065,7 +22029,7 @@
         <v>1123</v>
       </c>
       <c r="C311" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D311">
         <v>36</v>
@@ -22136,7 +22100,7 @@
         <v>1107</v>
       </c>
       <c r="C312" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D312">
         <v>13</v>
@@ -22213,7 +22177,7 @@
         <v>396</v>
       </c>
       <c r="C313" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D313">
         <v>26</v>
@@ -22278,7 +22242,7 @@
         <v>750</v>
       </c>
       <c r="C314" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D314">
         <v>40</v>
@@ -22349,7 +22313,7 @@
         <v>99</v>
       </c>
       <c r="C315" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D315">
         <v>68</v>
@@ -22420,7 +22384,7 @@
         <v>1398</v>
       </c>
       <c r="C316" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D316">
         <v>42</v>
@@ -22491,7 +22455,7 @@
         <v>1321</v>
       </c>
       <c r="C317" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D317">
         <v>44</v>
@@ -22556,7 +22520,7 @@
         <v>1242</v>
       </c>
       <c r="C318" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D318">
         <v>23</v>
@@ -22633,7 +22597,7 @@
         <v>828</v>
       </c>
       <c r="C319" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D319">
         <v>27</v>
@@ -22698,7 +22662,7 @@
         <v>1047</v>
       </c>
       <c r="C320" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D320">
         <v>41</v>
@@ -22775,7 +22739,7 @@
         <v>1551</v>
       </c>
       <c r="C321" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D321">
         <v>3</v>
@@ -22846,7 +22810,7 @@
         <v>807</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D322">
         <v>42</v>
@@ -22911,7 +22875,7 @@
         <v>1010</v>
       </c>
       <c r="C323" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D323">
         <v>59</v>
@@ -22976,7 +22940,7 @@
         <v>999</v>
       </c>
       <c r="C324" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D324">
         <v>26</v>
@@ -23041,7 +23005,7 @@
         <v>201</v>
       </c>
       <c r="C325" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D325">
         <v>68</v>
@@ -23106,7 +23070,7 @@
         <v>674</v>
       </c>
       <c r="C326" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D326">
         <v>31</v>
@@ -23177,7 +23141,7 @@
         <v>1262</v>
       </c>
       <c r="C327" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D327">
         <v>34</v>
@@ -23254,7 +23218,7 @@
         <v>1200</v>
       </c>
       <c r="C328" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D328">
         <v>50</v>
@@ -23343,7 +23307,7 @@
         <v>1240</v>
       </c>
       <c r="C329" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D329">
         <v>47</v>
@@ -23420,7 +23384,7 @@
         <v>1148</v>
       </c>
       <c r="C330" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D330">
         <v>70</v>
@@ -23497,7 +23461,7 @@
         <v>246</v>
       </c>
       <c r="C331" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D331">
         <v>62</v>
@@ -23568,7 +23532,7 @@
         <v>841</v>
       </c>
       <c r="C332" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D332">
         <v>63</v>
@@ -23645,7 +23609,7 @@
         <v>263</v>
       </c>
       <c r="C333" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D333">
         <v>67</v>
@@ -23710,7 +23674,7 @@
         <v>379</v>
       </c>
       <c r="C334" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D334">
         <v>69</v>
@@ -23787,7 +23751,7 @@
         <v>111</v>
       </c>
       <c r="C335" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D335">
         <v>34</v>
@@ -23858,7 +23822,7 @@
         <v>289</v>
       </c>
       <c r="C336" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D336">
         <v>44</v>
@@ -23941,7 +23905,7 @@
         <v>1021</v>
       </c>
       <c r="C337" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D337">
         <v>29</v>
@@ -24006,7 +23970,7 @@
         <v>958</v>
       </c>
       <c r="C338" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D338">
         <v>63</v>
@@ -24077,7 +24041,7 @@
         <v>669</v>
       </c>
       <c r="C339" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D339">
         <v>56</v>
@@ -24148,7 +24112,7 @@
         <v>778</v>
       </c>
       <c r="C340" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D340">
         <v>50</v>
@@ -24219,7 +24183,7 @@
         <v>555</v>
       </c>
       <c r="C341" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D341">
         <v>29</v>
@@ -24284,7 +24248,7 @@
         <v>511</v>
       </c>
       <c r="C342" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D342">
         <v>26</v>
@@ -24361,7 +24325,7 @@
         <v>214</v>
       </c>
       <c r="C343" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D343">
         <v>39</v>
@@ -24438,7 +24402,7 @@
         <v>592</v>
       </c>
       <c r="C344" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D344">
         <v>50</v>
@@ -24509,7 +24473,7 @@
         <v>153</v>
       </c>
       <c r="C345" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D345">
         <v>67</v>
@@ -24586,7 +24550,7 @@
         <v>616</v>
       </c>
       <c r="C346" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D346">
         <v>67</v>
@@ -24651,7 +24615,7 @@
         <v>229</v>
       </c>
       <c r="C347" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D347">
         <v>74</v>
@@ -24716,7 +24680,7 @@
         <v>781</v>
       </c>
       <c r="C348" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D348">
         <v>51</v>
@@ -24787,7 +24751,7 @@
         <v>169</v>
       </c>
       <c r="C349" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D349">
         <v>75</v>
@@ -24852,7 +24816,7 @@
         <v>870</v>
       </c>
       <c r="C350" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D350">
         <v>22</v>
@@ -24923,7 +24887,7 @@
         <v>752</v>
       </c>
       <c r="C351" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D351">
         <v>58</v>
@@ -24994,7 +24958,7 @@
         <v>912</v>
       </c>
       <c r="C352" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D352">
         <v>50</v>
@@ -25059,7 +25023,7 @@
         <v>432</v>
       </c>
       <c r="C353" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D353">
         <v>53</v>
@@ -25142,7 +25106,7 @@
         <v>1310</v>
       </c>
       <c r="C354" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D354">
         <v>36</v>
@@ -25207,7 +25171,7 @@
         <v>224</v>
       </c>
       <c r="C355" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D355">
         <v>83</v>
@@ -25278,7 +25242,7 @@
         <v>1153</v>
       </c>
       <c r="C356" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D356">
         <v>40</v>
@@ -25349,7 +25313,7 @@
         <v>835</v>
       </c>
       <c r="C357" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D357">
         <v>66</v>
@@ -25414,7 +25378,7 @@
         <v>1122</v>
       </c>
       <c r="C358" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D358">
         <v>19</v>
@@ -25479,7 +25443,7 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D359">
         <v>30</v>
@@ -25556,7 +25520,7 @@
         <v>967</v>
       </c>
       <c r="C360" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D360">
         <v>27</v>
@@ -25621,7 +25585,7 @@
         <v>788</v>
       </c>
       <c r="C361" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D361">
         <v>62</v>
@@ -25698,7 +25662,7 @@
         <v>138</v>
       </c>
       <c r="C362" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D362">
         <v>47</v>
@@ -25763,7 +25727,7 @@
         <v>309</v>
       </c>
       <c r="C363" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D363">
         <v>62</v>
@@ -25828,7 +25792,7 @@
         <v>626</v>
       </c>
       <c r="C364" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D364">
         <v>58</v>
@@ -25893,7 +25857,7 @@
         <v>166</v>
       </c>
       <c r="C365" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D365">
         <v>48</v>
@@ -25970,7 +25934,7 @@
         <v>55</v>
       </c>
       <c r="C366" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D366">
         <v>51</v>
@@ -26035,7 +25999,7 @@
         <v>538</v>
       </c>
       <c r="C367" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D367">
         <v>48</v>
@@ -26106,7 +26070,7 @@
         <v>1185</v>
       </c>
       <c r="C368" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D368">
         <v>33</v>
@@ -26171,7 +26135,7 @@
         <v>1002</v>
       </c>
       <c r="C369" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D369">
         <v>73</v>
@@ -26248,7 +26212,7 @@
         <v>373</v>
       </c>
       <c r="C370" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D370">
         <v>39</v>
@@ -26313,7 +26277,7 @@
         <v>516</v>
       </c>
       <c r="C371" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D371">
         <v>63</v>
@@ -26384,7 +26348,7 @@
         <v>426</v>
       </c>
       <c r="C372" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D372">
         <v>42</v>
@@ -26449,7 +26413,7 @@
         <v>237</v>
       </c>
       <c r="C373" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D373">
         <v>40</v>
@@ -26514,7 +26478,7 @@
         <v>839</v>
       </c>
       <c r="C374" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D374">
         <v>29</v>
@@ -26579,7 +26543,7 @@
         <v>1587</v>
       </c>
       <c r="C375" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D375">
         <v>40</v>
@@ -26644,7 +26608,7 @@
         <v>521</v>
       </c>
       <c r="C376" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D376">
         <v>23</v>
@@ -26715,7 +26679,7 @@
         <v>803</v>
       </c>
       <c r="C377" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D377">
         <v>37</v>
@@ -26780,7 +26744,7 @@
         <v>411</v>
       </c>
       <c r="C378" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D378">
         <v>74</v>
@@ -26863,7 +26827,7 @@
         <v>1271</v>
       </c>
       <c r="C379" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D379">
         <v>42</v>
@@ -26946,7 +26910,7 @@
         <v>364</v>
       </c>
       <c r="C380" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D380">
         <v>37</v>
@@ -27011,7 +26975,7 @@
         <v>261</v>
       </c>
       <c r="C381" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D381">
         <v>18</v>
@@ -27076,7 +27040,7 @@
         <v>28</v>
       </c>
       <c r="C382" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D382">
         <v>18</v>
@@ -27141,7 +27105,7 @@
         <v>467</v>
       </c>
       <c r="C383" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D383">
         <v>83</v>
@@ -27206,7 +27170,7 @@
         <v>1093</v>
       </c>
       <c r="C384" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D384">
         <v>22</v>
@@ -27271,7 +27235,7 @@
         <v>667</v>
       </c>
       <c r="C385" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D385">
         <v>48</v>
@@ -27336,7 +27300,7 @@
         <v>312</v>
       </c>
       <c r="C386" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D386">
         <v>71</v>
@@ -27407,7 +27371,7 @@
         <v>226</v>
       </c>
       <c r="C387" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D387">
         <v>57</v>
@@ -27472,7 +27436,7 @@
         <v>749</v>
       </c>
       <c r="C388" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D388">
         <v>30</v>
@@ -27537,7 +27501,7 @@
         <v>1260</v>
       </c>
       <c r="C389" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D389">
         <v>61</v>
@@ -27608,7 +27572,7 @@
         <v>347</v>
       </c>
       <c r="C390" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D390">
         <v>46</v>
@@ -27673,7 +27637,7 @@
         <v>1341</v>
       </c>
       <c r="C391" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D391">
         <v>32</v>
@@ -27738,7 +27702,7 @@
         <v>1474</v>
       </c>
       <c r="C392" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D392">
         <v>25</v>
@@ -27815,7 +27779,7 @@
         <v>768</v>
       </c>
       <c r="C393" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D393">
         <v>19</v>
@@ -27886,7 +27850,7 @@
         <v>265</v>
       </c>
       <c r="C394" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D394">
         <v>26</v>
@@ -27951,7 +27915,7 @@
         <v>1008</v>
       </c>
       <c r="C395" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D395">
         <v>37</v>
@@ -28028,7 +27992,7 @@
         <v>41</v>
       </c>
       <c r="C396" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D396">
         <v>20</v>
@@ -28099,7 +28063,7 @@
         <v>523</v>
       </c>
       <c r="C397" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D397">
         <v>38</v>
@@ -28164,7 +28128,7 @@
         <v>902</v>
       </c>
       <c r="C398" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D398">
         <v>40</v>
@@ -28229,7 +28193,7 @@
         <v>620</v>
       </c>
       <c r="C399" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D399">
         <v>28</v>
@@ -28294,7 +28258,7 @@
         <v>1204</v>
       </c>
       <c r="C400" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D400">
         <v>27</v>
@@ -28359,7 +28323,7 @@
         <v>978</v>
       </c>
       <c r="C401" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D401">
         <v>35</v>
@@ -28436,7 +28400,7 @@
         <v>1324</v>
       </c>
       <c r="C402" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D402">
         <v>48</v>
@@ -28513,7 +28477,7 @@
         <v>1226</v>
       </c>
       <c r="C403" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D403">
         <v>82</v>
@@ -28596,7 +28560,7 @@
         <v>353</v>
       </c>
       <c r="C404" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D404">
         <v>61</v>
@@ -28673,7 +28637,7 @@
         <v>141</v>
       </c>
       <c r="C405" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D405">
         <v>20</v>
@@ -28750,7 +28714,7 @@
         <v>350</v>
       </c>
       <c r="C406" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D406">
         <v>4</v>
@@ -28821,7 +28785,7 @@
         <v>708</v>
       </c>
       <c r="C407" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D407">
         <v>49</v>
@@ -28886,7 +28850,7 @@
         <v>98</v>
       </c>
       <c r="C408" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D408">
         <v>51</v>
@@ -28957,7 +28921,7 @@
         <v>270</v>
       </c>
       <c r="C409" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D409">
         <v>31</v>
@@ -29022,7 +28986,7 @@
         <v>1129</v>
       </c>
       <c r="C410" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D410">
         <v>42</v>
@@ -29087,7 +29051,7 @@
         <v>1229</v>
       </c>
       <c r="C411" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D411">
         <v>64</v>
@@ -29152,7 +29116,7 @@
         <v>681</v>
       </c>
       <c r="C412" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D412">
         <v>56</v>
@@ -29235,7 +29199,7 @@
         <v>607</v>
       </c>
       <c r="C413" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D413">
         <v>20</v>
@@ -29324,7 +29288,7 @@
         <v>1586</v>
       </c>
       <c r="C414" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D414">
         <v>2</v>
@@ -29389,7 +29353,7 @@
         <v>188</v>
       </c>
       <c r="C415" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D415">
         <v>30</v>
@@ -29460,7 +29424,7 @@
         <v>1614</v>
       </c>
       <c r="C416" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D416">
         <v>48</v>
@@ -29525,7 +29489,7 @@
         <v>940</v>
       </c>
       <c r="C417" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D417">
         <v>18</v>
@@ -29590,7 +29554,7 @@
         <v>779</v>
       </c>
       <c r="C418" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D418">
         <v>44</v>
@@ -29661,7 +29625,7 @@
         <v>115</v>
       </c>
       <c r="C419" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D419">
         <v>57</v>
@@ -29726,7 +29690,7 @@
         <v>354</v>
       </c>
       <c r="C420" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D420">
         <v>43</v>
@@ -29803,7 +29767,7 @@
         <v>165</v>
       </c>
       <c r="C421" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D421">
         <v>42</v>
@@ -29868,7 +29832,7 @@
         <v>866</v>
       </c>
       <c r="C422" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D422">
         <v>21</v>
@@ -29933,7 +29897,7 @@
         <v>1455</v>
       </c>
       <c r="C423" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D423">
         <v>39</v>
@@ -30016,7 +29980,7 @@
         <v>1136</v>
       </c>
       <c r="C424" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D424">
         <v>69</v>
@@ -30081,7 +30045,7 @@
         <v>1192</v>
       </c>
       <c r="C425" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D425">
         <v>25</v>
@@ -30158,7 +30122,7 @@
         <v>410</v>
       </c>
       <c r="C426" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D426">
         <v>17</v>
@@ -30235,7 +30199,7 @@
         <v>1559</v>
       </c>
       <c r="C427" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D427">
         <v>34</v>
@@ -30300,7 +30264,7 @@
         <v>490</v>
       </c>
       <c r="C428" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D428">
         <v>7</v>
@@ -30365,7 +30329,7 @@
         <v>1138</v>
       </c>
       <c r="C429" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D429">
         <v>54</v>
@@ -30436,7 +30400,7 @@
         <v>543</v>
       </c>
       <c r="C430" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D430">
         <v>72</v>
@@ -30507,7 +30471,7 @@
         <v>738</v>
       </c>
       <c r="C431" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D431">
         <v>49</v>
@@ -30572,7 +30536,7 @@
         <v>458</v>
       </c>
       <c r="C432" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D432">
         <v>29</v>
@@ -30637,7 +30601,7 @@
         <v>1518</v>
       </c>
       <c r="C433" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D433">
         <v>69</v>
@@ -30702,7 +30666,7 @@
         <v>799</v>
       </c>
       <c r="C434" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D434">
         <v>73</v>
@@ -30725,7 +30689,7 @@
         <v>140</v>
       </c>
       <c r="C435" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D435">
         <v>25</v>
@@ -30796,7 +30760,7 @@
         <v>1009</v>
       </c>
       <c r="C436" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D436">
         <v>41</v>
@@ -30867,7 +30831,7 @@
         <v>311</v>
       </c>
       <c r="C437" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D437">
         <v>20</v>
@@ -30938,7 +30902,7 @@
         <v>813</v>
       </c>
       <c r="C438" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D438">
         <v>57</v>
@@ -31015,7 +30979,7 @@
         <v>338</v>
       </c>
       <c r="C439" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D439">
         <v>27</v>
@@ -31080,7 +31044,7 @@
         <v>1237</v>
       </c>
       <c r="C440" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D440">
         <v>43</v>
@@ -31157,7 +31121,7 @@
         <v>1588</v>
       </c>
       <c r="C441" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D441">
         <v>61</v>
@@ -31228,7 +31192,7 @@
         <v>1101</v>
       </c>
       <c r="C442" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D442">
         <v>24</v>
@@ -31305,7 +31269,7 @@
         <v>975</v>
       </c>
       <c r="C443" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D443">
         <v>57</v>
@@ -31370,7 +31334,7 @@
         <v>983</v>
       </c>
       <c r="C444" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D444">
         <v>56</v>
@@ -31447,7 +31411,7 @@
         <v>104</v>
       </c>
       <c r="C445" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D445">
         <v>10</v>
@@ -31524,7 +31488,7 @@
         <v>101</v>
       </c>
       <c r="C446" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D446">
         <v>63</v>
@@ -31601,7 +31565,7 @@
         <v>1147</v>
       </c>
       <c r="C447" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D447">
         <v>38</v>
@@ -31666,7 +31630,7 @@
         <v>954</v>
       </c>
       <c r="C448" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D448">
         <v>83</v>
@@ -31737,7 +31701,7 @@
         <v>724</v>
       </c>
       <c r="C449" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D449">
         <v>39</v>
@@ -31802,7 +31766,7 @@
         <v>1508</v>
       </c>
       <c r="C450" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D450">
         <v>68</v>
@@ -31879,7 +31843,7 @@
         <v>430</v>
       </c>
       <c r="C451" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D451">
         <v>52</v>
@@ -31944,7 +31908,7 @@
         <v>640</v>
       </c>
       <c r="C452" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D452">
         <v>33</v>
@@ -32015,7 +31979,7 @@
         <v>664</v>
       </c>
       <c r="C453" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D453">
         <v>63</v>
@@ -32080,7 +32044,7 @@
         <v>1162</v>
       </c>
       <c r="C454" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D454">
         <v>30</v>
@@ -32145,7 +32109,7 @@
         <v>676</v>
       </c>
       <c r="C455" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D455">
         <v>37</v>
@@ -32222,7 +32186,7 @@
         <v>1373</v>
       </c>
       <c r="C456" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D456">
         <v>25</v>
@@ -32287,7 +32251,7 @@
         <v>1521</v>
       </c>
       <c r="C457" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D457">
         <v>27</v>
@@ -32352,7 +32316,7 @@
         <v>811</v>
       </c>
       <c r="C458" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D458">
         <v>28</v>
@@ -32417,7 +32381,7 @@
         <v>146</v>
       </c>
       <c r="C459" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D459">
         <v>37</v>
@@ -32482,7 +32446,7 @@
         <v>1478</v>
       </c>
       <c r="C460" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D460">
         <v>54</v>
@@ -32553,7 +32517,7 @@
         <v>1389</v>
       </c>
       <c r="C461" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D461">
         <v>50</v>
@@ -32618,7 +32582,7 @@
         <v>1092</v>
       </c>
       <c r="C462" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D462">
         <v>31</v>
@@ -32683,7 +32647,7 @@
         <v>151</v>
       </c>
       <c r="C463" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D463">
         <v>58</v>
@@ -32754,7 +32718,7 @@
         <v>583</v>
       </c>
       <c r="C464" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D464">
         <v>34</v>
@@ -32831,7 +32795,7 @@
         <v>727</v>
       </c>
       <c r="C465" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D465">
         <v>53</v>
@@ -32908,7 +32872,7 @@
         <v>1497</v>
       </c>
       <c r="C466" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D466">
         <v>32</v>
@@ -32979,7 +32943,7 @@
         <v>231</v>
       </c>
       <c r="C467" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D467">
         <v>27</v>
@@ -33050,7 +33014,7 @@
         <v>16</v>
       </c>
       <c r="C468" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D468">
         <v>46</v>
@@ -33127,7 +33091,7 @@
         <v>562</v>
       </c>
       <c r="C469" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D469">
         <v>22</v>
@@ -33198,7 +33162,7 @@
         <v>1228</v>
       </c>
       <c r="C470" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D470">
         <v>19</v>
@@ -33263,7 +33227,7 @@
         <v>233</v>
       </c>
       <c r="C471" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D471">
         <v>32</v>
@@ -33328,7 +33292,7 @@
         <v>329</v>
       </c>
       <c r="C472" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D472">
         <v>18</v>
@@ -33399,7 +33363,7 @@
         <v>1013</v>
       </c>
       <c r="C473" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D473">
         <v>25</v>
@@ -33464,7 +33428,7 @@
         <v>965</v>
       </c>
       <c r="C474" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D474">
         <v>62</v>
@@ -33541,7 +33505,7 @@
         <v>1457</v>
       </c>
       <c r="C475" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D475">
         <v>41</v>
@@ -33606,7 +33570,7 @@
         <v>1146</v>
       </c>
       <c r="C476" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D476">
         <v>57</v>
@@ -33677,7 +33641,7 @@
         <v>513</v>
       </c>
       <c r="C477" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D477">
         <v>40</v>
@@ -33742,7 +33706,7 @@
         <v>207</v>
       </c>
       <c r="C478" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D478">
         <v>41</v>
@@ -33807,7 +33771,7 @@
         <v>326</v>
       </c>
       <c r="C479" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D479">
         <v>33</v>
@@ -33878,7 +33842,7 @@
         <v>1102</v>
       </c>
       <c r="C480" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D480">
         <v>59</v>
@@ -33943,7 +33907,7 @@
         <v>760</v>
       </c>
       <c r="C481" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D481">
         <v>44</v>
@@ -34014,7 +33978,7 @@
         <v>345</v>
       </c>
       <c r="C482" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D482">
         <v>56</v>
@@ -34085,7 +34049,7 @@
         <v>496</v>
       </c>
       <c r="C483" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D483">
         <v>35</v>
@@ -34150,7 +34114,7 @@
         <v>1270</v>
       </c>
       <c r="C484" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D484">
         <v>38</v>
@@ -34215,7 +34179,7 @@
         <v>145</v>
       </c>
       <c r="C485" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D485">
         <v>14</v>
@@ -34286,7 +34250,7 @@
         <v>1426</v>
       </c>
       <c r="C486" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D486">
         <v>71</v>
@@ -34351,7 +34315,7 @@
         <v>596</v>
       </c>
       <c r="C487" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D487">
         <v>53</v>
@@ -34416,7 +34380,7 @@
         <v>931</v>
       </c>
       <c r="C488" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D488">
         <v>40</v>
@@ -34481,7 +34445,7 @@
         <v>1112</v>
       </c>
       <c r="C489" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D489">
         <v>45</v>
@@ -34552,7 +34516,7 @@
         <v>1211</v>
       </c>
       <c r="C490" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D490">
         <v>6</v>
@@ -34629,7 +34593,7 @@
         <v>32</v>
       </c>
       <c r="C491" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D491">
         <v>29</v>
@@ -34706,7 +34670,7 @@
         <v>651</v>
       </c>
       <c r="C492" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D492">
         <v>58</v>
@@ -34777,7 +34741,7 @@
         <v>1465</v>
       </c>
       <c r="C493" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D493">
         <v>41</v>
@@ -34842,7 +34806,7 @@
         <v>1057</v>
       </c>
       <c r="C494" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D494">
         <v>51</v>
@@ -34919,7 +34883,7 @@
         <v>603</v>
       </c>
       <c r="C495" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D495">
         <v>30</v>
@@ -34990,7 +34954,7 @@
         <v>488</v>
       </c>
       <c r="C496" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D496">
         <v>59</v>
@@ -35067,7 +35031,7 @@
         <v>206</v>
       </c>
       <c r="C497" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D497">
         <v>83</v>
@@ -35138,7 +35102,7 @@
         <v>785</v>
       </c>
       <c r="C498" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D498">
         <v>9</v>
@@ -35209,7 +35173,7 @@
         <v>1424</v>
       </c>
       <c r="C499" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D499">
         <v>34</v>
@@ -35280,7 +35244,7 @@
         <v>1248</v>
       </c>
       <c r="C500" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D500">
         <v>28</v>
@@ -35351,7 +35315,7 @@
         <v>12</v>
       </c>
       <c r="C501" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D501">
         <v>45</v>
@@ -35416,7 +35380,7 @@
         <v>325</v>
       </c>
       <c r="C502" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D502">
         <v>33</v>
@@ -35487,7 +35451,7 @@
         <v>110</v>
       </c>
       <c r="C503" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D503">
         <v>55</v>
@@ -35564,7 +35528,7 @@
         <v>232</v>
       </c>
       <c r="C504" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D504">
         <v>38</v>
@@ -35629,7 +35593,7 @@
         <v>886</v>
       </c>
       <c r="C505" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D505">
         <v>36</v>
@@ -35700,7 +35664,7 @@
         <v>650</v>
       </c>
       <c r="C506" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D506">
         <v>22</v>
@@ -35765,7 +35729,7 @@
         <v>260</v>
       </c>
       <c r="C507" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D507">
         <v>40</v>
@@ -35830,7 +35794,7 @@
         <v>330</v>
       </c>
       <c r="C508" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D508">
         <v>34</v>
@@ -35901,7 +35865,7 @@
         <v>851</v>
       </c>
       <c r="C509" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D509">
         <v>4</v>
@@ -35978,7 +35942,7 @@
         <v>117</v>
       </c>
       <c r="C510" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D510">
         <v>43</v>
@@ -36049,7 +36013,7 @@
         <v>571</v>
       </c>
       <c r="C511" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D511">
         <v>73</v>
@@ -36126,7 +36090,7 @@
         <v>440</v>
       </c>
       <c r="C512" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D512">
         <v>21</v>
@@ -36191,7 +36155,7 @@
         <v>1007</v>
       </c>
       <c r="C513" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D513">
         <v>42</v>
@@ -36268,7 +36232,7 @@
         <v>340</v>
       </c>
       <c r="C514" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D514">
         <v>76</v>
@@ -36339,7 +36303,7 @@
         <v>1343</v>
       </c>
       <c r="C515" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D515">
         <v>37</v>
@@ -36416,7 +36380,7 @@
         <v>57</v>
       </c>
       <c r="C516" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D516">
         <v>28</v>
@@ -36481,7 +36445,7 @@
         <v>696</v>
       </c>
       <c r="C517" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D517">
         <v>44</v>
@@ -36552,7 +36516,7 @@
         <v>401</v>
       </c>
       <c r="C518" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D518">
         <v>38</v>
@@ -36623,7 +36587,7 @@
         <v>996</v>
       </c>
       <c r="C519" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D519">
         <v>39</v>
@@ -36688,7 +36652,7 @@
         <v>972</v>
       </c>
       <c r="C520" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D520">
         <v>26</v>
@@ -36759,7 +36723,7 @@
         <v>358</v>
       </c>
       <c r="C521" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D521">
         <v>38</v>
@@ -36824,7 +36788,7 @@
         <v>1252</v>
       </c>
       <c r="C522" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D522">
         <v>44</v>
@@ -36901,7 +36865,7 @@
         <v>1332</v>
       </c>
       <c r="C523" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D523">
         <v>37</v>
@@ -36972,7 +36936,7 @@
         <v>423</v>
       </c>
       <c r="C524" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D524">
         <v>52</v>
@@ -37037,7 +37001,7 @@
         <v>697</v>
       </c>
       <c r="C525" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D525">
         <v>54</v>
@@ -37114,7 +37078,7 @@
         <v>1114</v>
       </c>
       <c r="C526" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D526">
         <v>33</v>
@@ -37191,7 +37155,7 @@
         <v>243</v>
       </c>
       <c r="C527" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D527">
         <v>20</v>
@@ -37268,7 +37232,7 @@
         <v>164</v>
       </c>
       <c r="C528" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D528">
         <v>40</v>
@@ -37345,7 +37309,7 @@
         <v>1225</v>
       </c>
       <c r="C529" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D529">
         <v>45</v>
@@ -37410,7 +37374,7 @@
         <v>1073</v>
       </c>
       <c r="C530" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D530">
         <v>4</v>
@@ -37487,7 +37451,7 @@
         <v>1207</v>
       </c>
       <c r="C531" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D531">
         <v>31</v>
@@ -37570,7 +37534,7 @@
         <v>759</v>
       </c>
       <c r="C532" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D532">
         <v>26</v>
@@ -37641,7 +37605,7 @@
         <v>296</v>
       </c>
       <c r="C533" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D533">
         <v>16</v>
@@ -37706,7 +37670,7 @@
         <v>435</v>
       </c>
       <c r="C534" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D534">
         <v>40</v>
@@ -37771,7 +37735,7 @@
         <v>1082</v>
       </c>
       <c r="C535" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -37836,7 +37800,7 @@
         <v>1569</v>
       </c>
       <c r="C536" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D536">
         <v>3</v>
@@ -37913,7 +37877,7 @@
         <v>1546</v>
       </c>
       <c r="C537" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D537">
         <v>37</v>
@@ -37978,7 +37942,7 @@
         <v>685</v>
       </c>
       <c r="C538" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D538">
         <v>60</v>
@@ -38055,7 +38019,7 @@
         <v>333</v>
       </c>
       <c r="C539" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D539">
         <v>33</v>
@@ -38120,7 +38084,7 @@
         <v>1504</v>
       </c>
       <c r="C540" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D540">
         <v>37</v>
@@ -38197,7 +38161,7 @@
         <v>987</v>
       </c>
       <c r="C541" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D541">
         <v>29</v>
@@ -38262,7 +38226,7 @@
         <v>386</v>
       </c>
       <c r="C542" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D542">
         <v>60</v>
@@ -38333,7 +38297,7 @@
         <v>786</v>
       </c>
       <c r="C543" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D543">
         <v>75</v>
@@ -38404,7 +38368,7 @@
         <v>1501</v>
       </c>
       <c r="C544" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D544">
         <v>44</v>
@@ -38475,7 +38439,7 @@
         <v>1313</v>
       </c>
       <c r="C545" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D545">
         <v>76</v>
@@ -38540,7 +38504,7 @@
         <v>168</v>
       </c>
       <c r="C546" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D546">
         <v>26</v>
@@ -38617,7 +38581,7 @@
         <v>695</v>
       </c>
       <c r="C547" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D547">
         <v>34</v>
@@ -38682,7 +38646,7 @@
         <v>1507</v>
       </c>
       <c r="C548" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D548">
         <v>43</v>
@@ -38753,7 +38717,7 @@
         <v>1482</v>
       </c>
       <c r="C549" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D549">
         <v>25</v>
@@ -38818,7 +38782,7 @@
         <v>1071</v>
       </c>
       <c r="C550" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D550">
         <v>54</v>
@@ -38901,7 +38865,7 @@
         <v>726</v>
       </c>
       <c r="C551" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D551">
         <v>60</v>
@@ -38972,7 +38936,7 @@
         <v>1319</v>
       </c>
       <c r="C552" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D552">
         <v>22</v>
@@ -39037,7 +39001,7 @@
         <v>530</v>
       </c>
       <c r="C553" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D553">
         <v>35</v>
@@ -39114,7 +39078,7 @@
         <v>183</v>
       </c>
       <c r="C554" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D554">
         <v>32</v>
@@ -39179,7 +39143,7 @@
         <v>1349</v>
       </c>
       <c r="C555" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D555">
         <v>50</v>
@@ -39250,7 +39214,7 @@
         <v>403</v>
       </c>
       <c r="C556" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D556">
         <v>19</v>
@@ -39315,7 +39279,7 @@
         <v>818</v>
       </c>
       <c r="C557" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D557">
         <v>76</v>
@@ -39380,7 +39344,7 @@
         <v>1509</v>
       </c>
       <c r="C558" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D558">
         <v>34</v>
@@ -39457,7 +39421,7 @@
         <v>637</v>
       </c>
       <c r="C559" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D559">
         <v>48</v>
@@ -39528,7 +39492,7 @@
         <v>1512</v>
       </c>
       <c r="C560" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D560">
         <v>34</v>
@@ -39593,7 +39557,7 @@
         <v>1480</v>
       </c>
       <c r="C561" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D561">
         <v>24</v>
@@ -39658,7 +39622,7 @@
         <v>1487</v>
       </c>
       <c r="C562" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D562">
         <v>52</v>
@@ -39729,7 +39693,7 @@
         <v>655</v>
       </c>
       <c r="C563" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D563">
         <v>16</v>
@@ -39794,7 +39758,7 @@
         <v>844</v>
       </c>
       <c r="C564" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D564">
         <v>43</v>
@@ -39859,7 +39823,7 @@
         <v>622</v>
       </c>
       <c r="C565" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D565">
         <v>56</v>
@@ -39924,7 +39888,7 @@
         <v>274</v>
       </c>
       <c r="C566" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D566">
         <v>66</v>
@@ -39989,7 +39953,7 @@
         <v>1420</v>
       </c>
       <c r="C567" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D567">
         <v>46</v>
@@ -40054,7 +40018,7 @@
         <v>100</v>
       </c>
       <c r="C568" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D568">
         <v>39</v>
@@ -40131,7 +40095,7 @@
         <v>1598</v>
       </c>
       <c r="C569" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D569">
         <v>23</v>
@@ -40202,7 +40166,7 @@
         <v>498</v>
       </c>
       <c r="C570" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D570">
         <v>21</v>
@@ -40267,7 +40231,7 @@
         <v>540</v>
       </c>
       <c r="C571" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D571">
         <v>45</v>
@@ -40338,7 +40302,7 @@
         <v>5</v>
       </c>
       <c r="C572" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D572">
         <v>58</v>
@@ -40409,7 +40373,7 @@
         <v>728</v>
       </c>
       <c r="C573" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D573">
         <v>37</v>
@@ -40474,7 +40438,7 @@
         <v>299</v>
       </c>
       <c r="C574" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D574">
         <v>28</v>
@@ -40545,7 +40509,7 @@
         <v>1210</v>
       </c>
       <c r="C575" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D575">
         <v>17</v>
@@ -40616,7 +40580,7 @@
         <v>1278</v>
       </c>
       <c r="C576" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D576">
         <v>60</v>
@@ -40693,7 +40657,7 @@
         <v>586</v>
       </c>
       <c r="C577" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D577">
         <v>33</v>
@@ -40758,7 +40722,7 @@
         <v>535</v>
       </c>
       <c r="C578" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D578">
         <v>39</v>
@@ -40829,7 +40793,7 @@
         <v>463</v>
       </c>
       <c r="C579" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D579">
         <v>48</v>
@@ -40900,7 +40864,7 @@
         <v>1181</v>
       </c>
       <c r="C580" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D580">
         <v>66</v>
@@ -40971,7 +40935,7 @@
         <v>1468</v>
       </c>
       <c r="C581" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D581">
         <v>36</v>
@@ -41042,7 +41006,7 @@
         <v>128</v>
       </c>
       <c r="C582" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D582">
         <v>70</v>
@@ -41113,7 +41077,7 @@
         <v>383</v>
       </c>
       <c r="C583" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D583">
         <v>31</v>
@@ -41190,7 +41154,7 @@
         <v>1443</v>
       </c>
       <c r="C584" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D584">
         <v>40</v>
@@ -41267,7 +41231,7 @@
         <v>1176</v>
       </c>
       <c r="C585" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D585">
         <v>14</v>
@@ -41332,7 +41296,7 @@
         <v>255</v>
       </c>
       <c r="C586" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D586">
         <v>73</v>
@@ -41397,7 +41361,7 @@
         <v>731</v>
       </c>
       <c r="C587" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D587">
         <v>21</v>
@@ -41462,7 +41426,7 @@
         <v>1435</v>
       </c>
       <c r="C588" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D588">
         <v>44</v>
@@ -41533,7 +41497,7 @@
         <v>532</v>
       </c>
       <c r="C589" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D589">
         <v>65</v>
@@ -41604,7 +41568,7 @@
         <v>1494</v>
       </c>
       <c r="C590" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D590">
         <v>74</v>
@@ -41681,7 +41645,7 @@
         <v>1296</v>
       </c>
       <c r="C591" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D591">
         <v>49</v>
@@ -41752,7 +41716,7 @@
         <v>286</v>
       </c>
       <c r="C592" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D592">
         <v>4</v>
@@ -41823,7 +41787,7 @@
         <v>362</v>
       </c>
       <c r="C593" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D593">
         <v>46</v>
@@ -41900,7 +41864,7 @@
         <v>539</v>
       </c>
       <c r="C594" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D594">
         <v>12</v>
@@ -41965,7 +41929,7 @@
         <v>1553</v>
       </c>
       <c r="C595" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D595">
         <v>35</v>
@@ -42030,7 +41994,7 @@
         <v>715</v>
       </c>
       <c r="C596" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D596">
         <v>37</v>
@@ -42107,7 +42071,7 @@
         <v>899</v>
       </c>
       <c r="C597" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D597">
         <v>59</v>
@@ -42172,7 +42136,7 @@
         <v>847</v>
       </c>
       <c r="C598" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D598">
         <v>19</v>
@@ -42237,7 +42201,7 @@
         <v>798</v>
       </c>
       <c r="C599" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D599">
         <v>24</v>
@@ -42302,7 +42266,7 @@
         <v>1421</v>
       </c>
       <c r="C600" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D600">
         <v>43</v>
@@ -42373,7 +42337,7 @@
         <v>307</v>
       </c>
       <c r="C601" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D601">
         <v>32</v>
@@ -42450,7 +42414,7 @@
         <v>936</v>
       </c>
       <c r="C602" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D602">
         <v>22</v>
@@ -42515,7 +42479,7 @@
         <v>77</v>
       </c>
       <c r="C603" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D603">
         <v>71</v>
@@ -42580,7 +42544,7 @@
         <v>223</v>
       </c>
       <c r="C604" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D604">
         <v>30</v>
@@ -42645,7 +42609,7 @@
         <v>871</v>
       </c>
       <c r="C605" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D605">
         <v>45</v>
@@ -42722,7 +42686,7 @@
         <v>105</v>
       </c>
       <c r="C606" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D606">
         <v>49</v>
@@ -42787,7 +42751,7 @@
         <v>893</v>
       </c>
       <c r="C607" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D607">
         <v>48</v>
@@ -42852,7 +42816,7 @@
         <v>356</v>
       </c>
       <c r="C608" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D608">
         <v>48</v>
@@ -42917,7 +42881,7 @@
         <v>1491</v>
       </c>
       <c r="C609" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D609">
         <v>19</v>
@@ -42988,7 +42952,7 @@
         <v>820</v>
       </c>
       <c r="C610" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D610">
         <v>66</v>
@@ -43053,7 +43017,7 @@
         <v>594</v>
       </c>
       <c r="C611" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D611">
         <v>35</v>
@@ -43124,7 +43088,7 @@
         <v>429</v>
       </c>
       <c r="C612" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D612">
         <v>59</v>
@@ -43201,7 +43165,7 @@
         <v>1358</v>
       </c>
       <c r="C613" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D613">
         <v>25</v>
@@ -43272,7 +43236,7 @@
         <v>1049</v>
       </c>
       <c r="C614" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D614">
         <v>39</v>
@@ -43337,7 +43301,7 @@
         <v>968</v>
       </c>
       <c r="C615" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D615">
         <v>35</v>
@@ -43408,7 +43372,7 @@
         <v>1110</v>
       </c>
       <c r="C616" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D616">
         <v>42</v>
@@ -43479,7 +43443,7 @@
         <v>1444</v>
       </c>
       <c r="C617" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D617">
         <v>39</v>
@@ -43544,7 +43508,7 @@
         <v>832</v>
       </c>
       <c r="C618" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D618">
         <v>37</v>
@@ -43609,7 +43573,7 @@
         <v>1120</v>
       </c>
       <c r="C619" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D619">
         <v>37</v>
@@ -43674,7 +43638,7 @@
         <v>174</v>
       </c>
       <c r="C620" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D620">
         <v>22</v>
@@ -43751,7 +43715,7 @@
         <v>567</v>
       </c>
       <c r="C621" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D621">
         <v>59</v>
@@ -43816,7 +43780,7 @@
         <v>314</v>
       </c>
       <c r="C622" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D622">
         <v>42</v>
@@ -43893,7 +43857,7 @@
         <v>1441</v>
       </c>
       <c r="C623" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D623">
         <v>49</v>
@@ -43958,7 +43922,7 @@
         <v>1604</v>
       </c>
       <c r="C624" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D624">
         <v>60</v>
@@ -44029,7 +43993,7 @@
         <v>1089</v>
       </c>
       <c r="C625" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D625">
         <v>44</v>
@@ -44094,7 +44058,7 @@
         <v>1119</v>
       </c>
       <c r="C626" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D626">
         <v>22</v>
@@ -44171,7 +44135,7 @@
         <v>887</v>
       </c>
       <c r="C627" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D627">
         <v>55</v>
@@ -44236,7 +44200,7 @@
         <v>559</v>
       </c>
       <c r="C628" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D628">
         <v>25</v>
@@ -44319,7 +44283,7 @@
         <v>949</v>
       </c>
       <c r="C629" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D629">
         <v>55</v>
@@ -44402,7 +44366,7 @@
         <v>842</v>
       </c>
       <c r="C630" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D630">
         <v>54</v>
@@ -44467,7 +44431,7 @@
         <v>1326</v>
       </c>
       <c r="C631" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D631">
         <v>50</v>
@@ -44532,7 +44496,7 @@
         <v>1449</v>
       </c>
       <c r="C632" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D632">
         <v>94</v>
@@ -44603,7 +44567,7 @@
         <v>1072</v>
       </c>
       <c r="C633" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D633">
         <v>50</v>
@@ -44674,7 +44638,7 @@
         <v>641</v>
       </c>
       <c r="C634" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D634">
         <v>72</v>
@@ -44739,7 +44703,7 @@
         <v>1069</v>
       </c>
       <c r="C635" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D635">
         <v>58</v>
@@ -44804,7 +44768,7 @@
         <v>1336</v>
       </c>
       <c r="C636" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D636">
         <v>61</v>
@@ -44869,7 +44833,7 @@
         <v>431</v>
       </c>
       <c r="C637" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D637">
         <v>21</v>
@@ -44934,7 +44898,7 @@
         <v>406</v>
       </c>
       <c r="C638" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D638">
         <v>31</v>
@@ -44999,7 +44963,7 @@
         <v>765</v>
       </c>
       <c r="C639" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D639">
         <v>44</v>
@@ -45064,7 +45028,7 @@
         <v>124</v>
       </c>
       <c r="C640" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D640">
         <v>68</v>
@@ -45135,7 +45099,7 @@
         <v>456</v>
       </c>
       <c r="C641" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D641">
         <v>66</v>
@@ -45206,7 +45170,7 @@
         <v>1026</v>
       </c>
       <c r="C642" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D642">
         <v>70</v>
@@ -45229,7 +45193,7 @@
         <v>419</v>
       </c>
       <c r="C643" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D643">
         <v>33</v>
@@ -45300,7 +45264,7 @@
         <v>1024</v>
       </c>
       <c r="C644" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D644">
         <v>65</v>
@@ -45365,7 +45329,7 @@
         <v>464</v>
       </c>
       <c r="C645" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D645">
         <v>68</v>
@@ -45436,7 +45400,7 @@
         <v>409</v>
       </c>
       <c r="C646" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D646">
         <v>31</v>
@@ -45507,7 +45471,7 @@
         <v>1466</v>
       </c>
       <c r="C647" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D647">
         <v>63</v>
